--- a/similarities/split_global/harmonic_similarity_timestamps_187.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_187.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,698 +484,738 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_56</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_41</t>
+          <t>schubert-winterreise_202</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:min7', 'Eb:7'], ['Bb:min7', 'Eb:7', 'Ab']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min7', 'C:7'], ['G:min7', 'C:7', 'F']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:15.930000', '0:00:17.560000'), ('0:00:13.210000', '0:00:15.930000')]</t>
+          <t>('0:00:44.200000', '0:00:59.980000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:08.520000', '0:00:11.210000'), ('0:00:09.060000', '0:00:12.300000')]</t>
+          <t>('0:01:03.100000', '0:01:04.320000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-56#t=15.93', 'https://soundcloud.com/jacopo-de-berardinis/jaah-56#t=13.21']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=44.2</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=8.52', 'https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=9.06']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=63.1</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>schubert-winterreise_1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_56</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:7', 'Ab']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'C']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:48.180000', '0:00:50.270000')]</t>
+          <t>('0:00:19.140000', '0:00:22.240000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:58.584331', '0:02:07.280204')]</t>
+          <t>('0:01:00.120000', '0:01:01.360000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=48.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=19.14</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-56#t=118.584331']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=60.12</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
+          <t>jaah_30</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['Ab', 'Bb', 'Eb'], ['Bb', 'Eb', 'Ab']]</t>
+          <t>['Ab:7', 'Db', 'Ab:7', 'Db', 'Ab:7', 'Db', 'Bb:7', 'Eb:min', 'G:dim7', 'Db']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F', 'G', 'C'], ['G', 'C', 'F']]</t>
+          <t>['Bb:7', 'Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb', 'C:7', 'F:min', 'F#:dim7', 'Eb']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:07.043000', '0:00:10.286000'), ('0:00:10.286000', '0:00:15.006000')]</t>
+          <t>('0:01:38.300000', '0:01:54.140000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:00.414179', '0:00:08.780606'), ('0:00:09.717289', '0:00:14.199024')]</t>
+          <t>('0:00:56.440000', '0:01:12.070000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=7.043', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=10.286']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=98.3</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-128#t=0.414179', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-128#t=9.717289']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=56.44</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>schubert-winterreise_210</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>schubert-winterreise_75</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'C:min/G'], ['C:min', 'G:7/D', 'C:min'], ['C:maj/G', 'G:7', 'C:min']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min'], ['D#:min', 'A#:7', 'D#:min'], ['D#:maj/A#', 'A#:7', 'D#:min/A#']]</t>
+          <t>['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:27.180000', '0:00:48.540000'), ('0:00:00.360000', '0:00:07.140000'), ('0:00:56.440000', '0:01:06.340000')]</t>
+          <t>('0:00:23.800000', '0:00:55.360000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:36.180000', '0:00:37.980000'), ('0:00:09.100000', '0:00:13.860000'), ('0:00:35.880000', '0:00:37.420000')]</t>
+          <t>('0:00:45.720000', '0:00:59.980000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-71#t=27.18', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-71#t=0.36', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-71#t=56.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=23.8</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=36.18', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=9.1', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=35.88']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=45.72</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>isophonics_295</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:min', 'A#:maj'], ['D#:min', 'A#:maj', 'D#:min'], ['D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min/A', 'A:maj'], ['D:min', 'A:maj', 'D:min'], ['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['C/3', 'F', 'C/3']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:12.960000', '0:00:17.820000'), ('0:00:00.360000', '0:00:05.060000'), ('0:01:58.400000', '0:02:01.720000')]</t>
+          <t>('0:00:55.680000', '0:01:02.280000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:31.980000', '0:00:34.580000'), ('0:00:08.240000', '0:00:13.460000'), ('0:01:06.520000', '0:01:10.140000')]</t>
+          <t>('0:01:16.585782', '0:01:18.064810')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=12.96', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=0.36', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=118.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=55.68</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=31.98', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=8.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=76.585782</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>schubert-winterreise_70</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_211</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:56.700000', '0:01:59.480000')]</t>
+          <t>('0:00:12.120000', '0:00:17.320000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:25.180000', '0:00:55.620000')]</t>
+          <t>('0:00:01', '0:00:05.360000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=116.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=12.12</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=25.18']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=1.0</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>schubert-winterreise_77</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:05.440000', '0:01:06.820000')]</t>
+          <t>('0:00:47.020000', '0:00:51.380000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:21.780000', '0:00:25.300000')]</t>
+          <t>('0:00:00.780000', '0:00:05.260000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=65.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=47.02</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-154#t=21.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=0.78</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>isophonics_291</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_19</t>
+          <t>schubert-winterreise_27</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F', 'F:7', 'Bb']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:55.400000', '0:01:03.680000')]</t>
+          <t>('0:00:03.044470', '0:00:11.035850')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:38.438956', '0:00:41.945170')]</t>
+          <t>('0:01:02.480000', '0:01:04.920000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=55.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=3.04447</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-19#t=38.438956']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_25</t>
+          <t>schubert-winterreise_103</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>schubert-winterreise_91</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:hdim7/A#', 'C:7', 'F:min']]</t>
+          <t>['C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:20.860000', '0:00:27.060000')]</t>
+          <t>('0:00:00.600000', '0:00:09.940000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:12.260000', '0:00:17.900000')]</t>
+          <t>('0:01:19.980000', '0:01:33.600000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-25#t=20.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=0.6</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-152#t=12.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=79.98</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj/B', 'C:min'], ['C:min', 'G:7/D', 'C:min/D#']]</t>
+          <t>['A', 'D', 'A/3']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:02.300000', '0:00:07.040000'), ('0:02:09.060000', '0:02:14.200000')]</t>
+          <t>('0:00:16.020000', '0:00:22.500000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:13.520000', '0:00:19.080000'), ('0:00:02', '0:00:04.320000')]</t>
+          <t>('0:00:13.527000', '0:00:17.058000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=2.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=129.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=16.02</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=13.52', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=2.0']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=13.527</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_271</t>
+          <t>isophonics_45</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>isophonics_58</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['E', 'C#:min', 'A'], ['E/5', 'E', 'C#:min']]</t>
+          <t>['F:maj', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['Ab/7', 'F:min', 'Db:maj'], ['Ab:maj', 'Ab/7', 'F:min']]</t>
+          <t>['C', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:57.898979', '0:01:01.881201'), ('0:01:02.670131', '0:01:10.008185')]</t>
+          <t>('0:00:13.155000', '0:00:20.379000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:57.388000', '0:01:02.385000'), ('0:00:55.697000', '0:01:00.759000')]</t>
+          <t>('0:00:31.527551', '0:00:47.026870')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-271#t=57.898979', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-271#t=62.670131']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=13.155</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=57.388', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=55.697']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-58#t=31.527551</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_77</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C', 'G:7', 'C', 'D:7']]</t>
+          <t>['A:min', 'E:maj', 'A:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C', 'D:7/C']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:21.170000', '0:00:27.940000')]</t>
+          <t>('0:00:13.500000', '0:00:21.900000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:04:22.920000', '0:04:32')]</t>
+          <t>('0:00:01.180000', '0:00:06.140000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=21.17']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=13.5</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=262.92']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=1.18</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>isophonics_69</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_214</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['Db:maj', 'Ab/3', 'Eb:7']]</t>
+          <t>['E', 'B:9', 'E']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'D:7']]</t>
+          <t>['C:maj', 'G:9', 'C:maj/G']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:13.159000', '0:00:16.555000')]</t>
+          <t>('0:00:33.711833', '0:00:45.368251')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:07.580000', '0:00:15.620000')]</t>
+          <t>('0:00:58.020000', '0:01:02.940000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=13.159']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-69#t=33.711833</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=7.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=58.02</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
+          <t>jaah_88</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>jaah_6</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['Bb:7', 'F:7', 'Bb:7', 'F:7']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['Ab:7', 'Eb:7', 'Ab:7', 'Eb:7']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:46.932280', '0:00:54.037586')]</t>
+          <t>('0:00:02.440000', '0:00:11.840000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:15.800000', '0:01:19.600000')]</t>
+          <t>('0:02:14.830000', '0:02:16.700000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=46.93228']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-88#t=2.44</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=75.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=134.83</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
+          <t>schubert-winterreise_90</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:08.440000', '0:00:17.540000'), ('0:00:19.980000', '0:00:27.180000')]</t>
+          <t>('0:02:34.760000', '0:02:40.980000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:13.120000', '0:00:19.960000'), ('0:01:20.200000', '0:01:26.860000')]</t>
+          <t>('0:02:03.220000', '0:02:07.180000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=8.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=19.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=154.76</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=13.12', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=80.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=123.22</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
